--- a/Progression/Progression_Informatique_2017_2018.xlsx
+++ b/Progression/Progression_Informatique_2017_2018.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
   <si>
     <t>Semaine</t>
   </si>
@@ -589,12 +589,6 @@
     <t>Equations différentielles</t>
   </si>
   <si>
-    <t>Annales</t>
-  </si>
-  <si>
-    <t>TD LIBRE</t>
-  </si>
-  <si>
     <t>TD récursivité (XP)</t>
   </si>
   <si>
@@ -781,12 +775,18 @@
   </si>
   <si>
     <t>DM</t>
+  </si>
+  <si>
+    <t>TD XP</t>
+  </si>
+  <si>
+    <t>TD SZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
@@ -1697,24 +1697,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1733,6 +1715,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1749,6 +1734,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1811,7 +1811,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1844,9 +1844,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1879,6 +1896,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2061,8 +2095,8 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2134,7 +2168,7 @@
         <v>59</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G3" s="66"/>
       <c r="H3" s="74"/>
@@ -2162,7 +2196,7 @@
       <c r="E4" s="92"/>
       <c r="F4" s="65"/>
       <c r="G4" s="68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H4" s="64"/>
       <c r="I4" s="17"/>
@@ -2189,7 +2223,7 @@
       <c r="E5" s="92"/>
       <c r="F5" s="15"/>
       <c r="G5" s="68" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H5" s="76"/>
       <c r="I5" s="17"/>
@@ -2214,11 +2248,11 @@
         <v>60</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" s="67"/>
       <c r="H6" s="68" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="4">
@@ -2244,7 +2278,7 @@
       <c r="E7" s="92"/>
       <c r="F7" s="15"/>
       <c r="G7" s="68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H7" s="73" t="s">
         <v>63</v>
@@ -2273,7 +2307,7 @@
       <c r="E8" s="92"/>
       <c r="F8" s="15"/>
       <c r="G8" s="68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H8" s="78"/>
       <c r="I8" s="17"/>
@@ -2295,10 +2329,10 @@
         <v>16/10/2017 au 22/10/2017</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G9" s="72"/>
       <c r="H9" s="75"/>
@@ -2351,7 +2385,7 @@
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H13" s="77"/>
       <c r="I13" s="59"/>
@@ -2378,10 +2412,10 @@
       <c r="E14" s="92"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H14" s="73" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I14" s="60"/>
     </row>
@@ -2405,7 +2439,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="21"/>
@@ -2433,12 +2467,12 @@
       <c r="E16" s="98"/>
       <c r="F16" s="15"/>
       <c r="G16" s="70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="60"/>
       <c r="K16" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
@@ -2490,7 +2524,7 @@
       </c>
       <c r="E18" s="94"/>
       <c r="G18" s="70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H18" s="73"/>
       <c r="I18" s="60"/>
@@ -2517,7 +2551,7 @@
       <c r="E19" s="95"/>
       <c r="F19" s="18"/>
       <c r="G19" s="71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="19"/>
@@ -2569,7 +2603,7 @@
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I23" s="59"/>
       <c r="J23" s="4">
@@ -2595,7 +2629,7 @@
       <c r="E24" s="92"/>
       <c r="F24" s="15"/>
       <c r="G24" s="70" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="60"/>
@@ -2622,7 +2656,7 @@
       <c r="E25" s="92"/>
       <c r="F25" s="65"/>
       <c r="G25" s="70" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="60"/>
@@ -2644,7 +2678,7 @@
         <v>29/01/2018 au 04/02/2018</v>
       </c>
       <c r="E26" s="96" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>1</v>
@@ -2677,12 +2711,12 @@
       <c r="E27" s="97"/>
       <c r="F27" s="29"/>
       <c r="G27" s="69" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H27" s="75"/>
       <c r="I27" s="61"/>
       <c r="K27" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2729,12 +2763,10 @@
       <c r="E31" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I31" s="59"/>
       <c r="J31" s="4">
@@ -2760,7 +2792,7 @@
       <c r="E32" s="62"/>
       <c r="F32" s="36"/>
       <c r="G32" s="9" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="60"/>
@@ -2781,18 +2813,16 @@
         <f t="shared" si="10"/>
         <v>12/03/2018 au 18/03/2018</v>
       </c>
-      <c r="E33" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="15"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="H33" s="73" t="s">
         <v>63</v>
       </c>
       <c r="I33" s="60"/>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2812,13 +2842,16 @@
         <f t="shared" si="10"/>
         <v>19/03/2018 au 25/03/2018</v>
       </c>
-      <c r="E34" s="62"/>
+      <c r="E34" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="F34" s="36"/>
-      <c r="G34" s="15" t="s">
-        <v>67</v>
-      </c>
+      <c r="G34" s="15"/>
       <c r="H34" s="73"/>
       <c r="I34" s="60"/>
+      <c r="J34" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
@@ -2836,16 +2869,14 @@
         <f t="shared" si="10"/>
         <v>26/03/2018 au 01/04/2018</v>
       </c>
-      <c r="E35" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35" s="15"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="H35" s="21"/>
       <c r="I35" s="60"/>
-      <c r="J35" s="4">
+      <c r="K35" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2868,7 +2899,7 @@
       <c r="E36" s="63"/>
       <c r="F36" s="29"/>
       <c r="G36" s="18" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="H36" s="75"/>
       <c r="I36" s="61"/>
@@ -2896,7 +2927,7 @@
       <c r="I38" s="28"/>
       <c r="J38" s="4">
         <f>SUM(J3:J36)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K38" s="4">
         <f>SUM(K3:K36)</f>
@@ -3180,7 +3211,7 @@
       <c r="A4" s="41">
         <v>42618</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="113" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="15"/>
@@ -3194,7 +3225,7 @@
         <f>A4+7</f>
         <v>42625</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="15" t="s">
         <v>17</v>
       </c>
@@ -3208,7 +3239,7 @@
         <f t="shared" ref="A6:A10" si="0">A5+7</f>
         <v>42632</v>
       </c>
-      <c r="B6" s="101"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
@@ -3222,7 +3253,7 @@
         <f t="shared" si="0"/>
         <v>42639</v>
       </c>
-      <c r="B7" s="101"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
@@ -3296,15 +3327,15 @@
       <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="116"/>
     </row>
     <row r="12" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
@@ -3361,7 +3392,7 @@
         <f t="shared" si="1"/>
         <v>42695</v>
       </c>
-      <c r="B16" s="100"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="48" t="s">
         <v>32</v>
       </c>
@@ -3445,7 +3476,7 @@
       <c r="A23" s="46">
         <v>42737</v>
       </c>
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="112" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="30" t="s">
@@ -3481,7 +3512,7 @@
         <f t="shared" ref="A25:A27" si="2">A24+7</f>
         <v>42751</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="36" t="s">
         <v>42</v>
       </c>
@@ -3519,7 +3550,7 @@
         <f t="shared" si="2"/>
         <v>42765</v>
       </c>
-      <c r="B27" s="105"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="36" t="s">
         <v>44</v>
       </c>
@@ -3539,7 +3570,7 @@
         <f>A27+7</f>
         <v>42772</v>
       </c>
-      <c r="B28" s="106"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="38" t="s">
         <v>47</v>
       </c>
@@ -3559,7 +3590,7 @@
         <f>A28+7</f>
         <v>42779</v>
       </c>
-      <c r="B29" s="107"/>
+      <c r="B29" s="101"/>
       <c r="C29" s="29" t="s">
         <v>47</v>
       </c>
@@ -3589,14 +3620,14 @@
       <c r="A33" s="46">
         <v>42800</v>
       </c>
-      <c r="B33" s="108" t="s">
+      <c r="B33" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="110"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="104"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="41">
@@ -3662,7 +3693,7 @@
         <v>42828</v>
       </c>
       <c r="B37" s="23"/>
-      <c r="C37" s="100"/>
+      <c r="C37" s="105"/>
       <c r="D37" s="15" t="s">
         <v>55</v>
       </c>
@@ -3730,14 +3761,14 @@
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
-      <c r="B45" s="111" t="s">
+      <c r="B45" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="113"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="108"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
@@ -3786,30 +3817,30 @@
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="116"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B42:G44"/>
-    <mergeCell ref="B45:G51"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B42:G44"/>
+    <mergeCell ref="B45:G51"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Progression/Progression_Informatique_2017_2018.xlsx
+++ b/Progression/Progression_Informatique_2017_2018.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,12 +12,12 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId3"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
   <si>
     <t>Semaine</t>
   </si>
@@ -589,21 +589,6 @@
     <t>Equations différentielles</t>
   </si>
   <si>
-    <t>TD récursivité (XP)</t>
-  </si>
-  <si>
-    <t>TD récursivité (SZ)</t>
-  </si>
-  <si>
-    <t>TD Piles (XP)</t>
-  </si>
-  <si>
-    <t>TD Piles (SZ)</t>
-  </si>
-  <si>
-    <t>TD (SZ)</t>
-  </si>
-  <si>
     <t>Numpy, Scipy …</t>
   </si>
   <si>
@@ -706,6 +691,27 @@
     </r>
   </si>
   <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>TD Piles (SZ) G1</t>
+  </si>
+  <si>
+    <t>TD Piles (XP) G2</t>
+  </si>
+  <si>
+    <t>TD TRI ou numpy/scipy
+(XP + SZ) 2 SALLES
+G2 : Vendredi 24/11/2017 XP
+G1 : Jeudi 30/11 SZ</t>
+  </si>
+  <si>
+    <t>TD récursivité (XP) G1</t>
+  </si>
+  <si>
+    <t>TD récursivité (SZ) G2</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -715,7 +721,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TD TRI (SZ)</t>
+      <t>TD TRI (XP) G1</t>
     </r>
     <r>
       <rPr>
@@ -740,7 +746,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TD TRI (XP)</t>
+      <t>TD TRI (SZ) G2</t>
     </r>
     <r>
       <rPr>
@@ -756,37 +762,41 @@
     </r>
   </si>
   <si>
-    <t>TD TRI ou numpy/scipy
-(XP + SZ) 2 SALLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD (XP) </t>
-  </si>
-  <si>
-    <t>TD PROJET ? (SZ)
+    <t>TD (XP)  G1</t>
+  </si>
+  <si>
+    <t>TD (SZ) G2</t>
+  </si>
+  <si>
+    <t>TD PROJET ? (SZ) G1
  (Appli graphique tkinter)</t>
   </si>
   <si>
-    <t>TD PROJET ? (XP)
+    <t>TD PROJET ? (XP) g2
  (Appli graphique tkinter)</t>
   </si>
   <si>
-    <t>TD PROJET ? (XP + SZ) 2 salles</t>
-  </si>
-  <si>
-    <t>DM</t>
-  </si>
-  <si>
-    <t>TD XP</t>
-  </si>
-  <si>
-    <t>TD SZ</t>
+    <t>TD PROJET ? (XP + SZ) 2 salles
+Jeudi XP G1
+Vendredi SZ G2</t>
+  </si>
+  <si>
+    <t>TD SZ G1</t>
+  </si>
+  <si>
+    <t>TD XP G2</t>
+  </si>
+  <si>
+    <t>TD XP G1</t>
+  </si>
+  <si>
+    <t>TD SZ G2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
@@ -1697,6 +1707,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1715,9 +1743,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1734,21 +1759,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1811,7 +1821,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1844,26 +1854,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1896,23 +1889,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2095,8 +2071,8 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2168,7 +2144,7 @@
         <v>59</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G3" s="66"/>
       <c r="H3" s="74"/>
@@ -2196,7 +2172,7 @@
       <c r="E4" s="92"/>
       <c r="F4" s="65"/>
       <c r="G4" s="68" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H4" s="64"/>
       <c r="I4" s="17"/>
@@ -2223,7 +2199,7 @@
       <c r="E5" s="92"/>
       <c r="F5" s="15"/>
       <c r="G5" s="68" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H5" s="76"/>
       <c r="I5" s="17"/>
@@ -2248,11 +2224,11 @@
         <v>60</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G6" s="67"/>
       <c r="H6" s="68" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="4">
@@ -2278,7 +2254,7 @@
       <c r="E7" s="92"/>
       <c r="F7" s="15"/>
       <c r="G7" s="68" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H7" s="73" t="s">
         <v>63</v>
@@ -2307,7 +2283,7 @@
       <c r="E8" s="92"/>
       <c r="F8" s="15"/>
       <c r="G8" s="68" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H8" s="78"/>
       <c r="I8" s="17"/>
@@ -2329,10 +2305,10 @@
         <v>16/10/2017 au 22/10/2017</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G9" s="72"/>
       <c r="H9" s="75"/>
@@ -2412,10 +2388,10 @@
       <c r="E14" s="92"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H14" s="73" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I14" s="60"/>
     </row>
@@ -2439,7 +2415,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="21"/>
@@ -2448,7 +2424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -2467,7 +2443,7 @@
       <c r="E16" s="98"/>
       <c r="F16" s="15"/>
       <c r="G16" s="70" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="60"/>
@@ -2551,7 +2527,7 @@
       <c r="E19" s="95"/>
       <c r="F19" s="18"/>
       <c r="G19" s="71" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="19"/>
@@ -2603,7 +2579,7 @@
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="77" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I23" s="59"/>
       <c r="J23" s="4">
@@ -2656,7 +2632,7 @@
       <c r="E25" s="92"/>
       <c r="F25" s="65"/>
       <c r="G25" s="70" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="60"/>
@@ -2678,7 +2654,7 @@
         <v>29/01/2018 au 04/02/2018</v>
       </c>
       <c r="E26" s="96" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>1</v>
@@ -2711,7 +2687,7 @@
       <c r="E27" s="97"/>
       <c r="F27" s="29"/>
       <c r="G27" s="69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H27" s="75"/>
       <c r="I27" s="61"/>
@@ -2766,7 +2742,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="77" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I31" s="59"/>
       <c r="J31" s="4">
@@ -2872,7 +2848,7 @@
       <c r="E35" s="62"/>
       <c r="F35" s="36"/>
       <c r="G35" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="60"/>
@@ -2899,7 +2875,7 @@
       <c r="E36" s="63"/>
       <c r="F36" s="29"/>
       <c r="G36" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H36" s="75"/>
       <c r="I36" s="61"/>
@@ -3211,7 +3187,7 @@
       <c r="A4" s="41">
         <v>42618</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="15"/>
@@ -3225,7 +3201,7 @@
         <f>A4+7</f>
         <v>42625</v>
       </c>
-      <c r="B5" s="113"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="15" t="s">
         <v>17</v>
       </c>
@@ -3239,7 +3215,7 @@
         <f t="shared" ref="A6:A10" si="0">A5+7</f>
         <v>42632</v>
       </c>
-      <c r="B6" s="113"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
@@ -3253,7 +3229,7 @@
         <f t="shared" si="0"/>
         <v>42639</v>
       </c>
-      <c r="B7" s="113"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
@@ -3327,15 +3303,15 @@
       <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="116"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
     </row>
     <row r="12" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
@@ -3392,7 +3368,7 @@
         <f t="shared" si="1"/>
         <v>42695</v>
       </c>
-      <c r="B16" s="105"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="48" t="s">
         <v>32</v>
       </c>
@@ -3476,7 +3452,7 @@
       <c r="A23" s="46">
         <v>42737</v>
       </c>
-      <c r="B23" s="112" t="s">
+      <c r="B23" s="99" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="30" t="s">
@@ -3512,7 +3488,7 @@
         <f t="shared" ref="A25:A27" si="2">A24+7</f>
         <v>42751</v>
       </c>
-      <c r="B25" s="105"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="36" t="s">
         <v>42</v>
       </c>
@@ -3550,7 +3526,7 @@
         <f t="shared" si="2"/>
         <v>42765</v>
       </c>
-      <c r="B27" s="99"/>
+      <c r="B27" s="105"/>
       <c r="C27" s="36" t="s">
         <v>44</v>
       </c>
@@ -3570,7 +3546,7 @@
         <f>A27+7</f>
         <v>42772</v>
       </c>
-      <c r="B28" s="100"/>
+      <c r="B28" s="106"/>
       <c r="C28" s="38" t="s">
         <v>47</v>
       </c>
@@ -3590,7 +3566,7 @@
         <f>A28+7</f>
         <v>42779</v>
       </c>
-      <c r="B29" s="101"/>
+      <c r="B29" s="107"/>
       <c r="C29" s="29" t="s">
         <v>47</v>
       </c>
@@ -3620,14 +3596,14 @@
       <c r="A33" s="46">
         <v>42800</v>
       </c>
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="104"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="110"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="41">
@@ -3693,7 +3669,7 @@
         <v>42828</v>
       </c>
       <c r="B37" s="23"/>
-      <c r="C37" s="105"/>
+      <c r="C37" s="100"/>
       <c r="D37" s="15" t="s">
         <v>55</v>
       </c>
@@ -3761,14 +3737,14 @@
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
-      <c r="B45" s="106" t="s">
+      <c r="B45" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="107"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="108"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="113"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
@@ -3817,30 +3793,30 @@
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
-      <c r="B51" s="109"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="111"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B42:G44"/>
+    <mergeCell ref="B45:G51"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B42:G44"/>
-    <mergeCell ref="B45:G51"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Progression/Progression_Informatique_2017_2018.xlsx
+++ b/Progression/Progression_Informatique_2017_2018.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,7 +12,7 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId3"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -796,7 +796,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
@@ -1707,24 +1707,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1743,6 +1725,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1759,6 +1744,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1821,7 +1821,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1854,9 +1854,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1889,6 +1906,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2071,8 +2105,8 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3187,7 +3221,7 @@
       <c r="A4" s="41">
         <v>42618</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="113" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="15"/>
@@ -3201,7 +3235,7 @@
         <f>A4+7</f>
         <v>42625</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="15" t="s">
         <v>17</v>
       </c>
@@ -3215,7 +3249,7 @@
         <f t="shared" ref="A6:A10" si="0">A5+7</f>
         <v>42632</v>
       </c>
-      <c r="B6" s="101"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
@@ -3229,7 +3263,7 @@
         <f t="shared" si="0"/>
         <v>42639</v>
       </c>
-      <c r="B7" s="101"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
@@ -3303,15 +3337,15 @@
       <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="116"/>
     </row>
     <row r="12" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
@@ -3368,7 +3402,7 @@
         <f t="shared" si="1"/>
         <v>42695</v>
       </c>
-      <c r="B16" s="100"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="48" t="s">
         <v>32</v>
       </c>
@@ -3452,7 +3486,7 @@
       <c r="A23" s="46">
         <v>42737</v>
       </c>
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="112" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="30" t="s">
@@ -3488,7 +3522,7 @@
         <f t="shared" ref="A25:A27" si="2">A24+7</f>
         <v>42751</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="36" t="s">
         <v>42</v>
       </c>
@@ -3526,7 +3560,7 @@
         <f t="shared" si="2"/>
         <v>42765</v>
       </c>
-      <c r="B27" s="105"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="36" t="s">
         <v>44</v>
       </c>
@@ -3546,7 +3580,7 @@
         <f>A27+7</f>
         <v>42772</v>
       </c>
-      <c r="B28" s="106"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="38" t="s">
         <v>47</v>
       </c>
@@ -3566,7 +3600,7 @@
         <f>A28+7</f>
         <v>42779</v>
       </c>
-      <c r="B29" s="107"/>
+      <c r="B29" s="101"/>
       <c r="C29" s="29" t="s">
         <v>47</v>
       </c>
@@ -3596,14 +3630,14 @@
       <c r="A33" s="46">
         <v>42800</v>
       </c>
-      <c r="B33" s="108" t="s">
+      <c r="B33" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="110"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="104"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="41">
@@ -3669,7 +3703,7 @@
         <v>42828</v>
       </c>
       <c r="B37" s="23"/>
-      <c r="C37" s="100"/>
+      <c r="C37" s="105"/>
       <c r="D37" s="15" t="s">
         <v>55</v>
       </c>
@@ -3737,14 +3771,14 @@
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
-      <c r="B45" s="111" t="s">
+      <c r="B45" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="113"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="108"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
@@ -3793,30 +3827,30 @@
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="116"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B42:G44"/>
-    <mergeCell ref="B45:G51"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B42:G44"/>
+    <mergeCell ref="B45:G51"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Progression/Progression_Informatique_2017_2018.xlsx
+++ b/Progression/Progression_Informatique_2017_2018.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -1707,6 +1707,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1725,9 +1743,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1744,21 +1759,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2105,8 +2105,8 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3221,7 +3221,7 @@
       <c r="A4" s="41">
         <v>42618</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="15"/>
@@ -3235,7 +3235,7 @@
         <f>A4+7</f>
         <v>42625</v>
       </c>
-      <c r="B5" s="113"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="15" t="s">
         <v>17</v>
       </c>
@@ -3249,7 +3249,7 @@
         <f t="shared" ref="A6:A10" si="0">A5+7</f>
         <v>42632</v>
       </c>
-      <c r="B6" s="113"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
@@ -3263,7 +3263,7 @@
         <f t="shared" si="0"/>
         <v>42639</v>
       </c>
-      <c r="B7" s="113"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
@@ -3337,15 +3337,15 @@
       <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="116"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
     </row>
     <row r="12" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
@@ -3402,7 +3402,7 @@
         <f t="shared" si="1"/>
         <v>42695</v>
       </c>
-      <c r="B16" s="105"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="48" t="s">
         <v>32</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="A23" s="46">
         <v>42737</v>
       </c>
-      <c r="B23" s="112" t="s">
+      <c r="B23" s="99" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="30" t="s">
@@ -3522,7 +3522,7 @@
         <f t="shared" ref="A25:A27" si="2">A24+7</f>
         <v>42751</v>
       </c>
-      <c r="B25" s="105"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="36" t="s">
         <v>42</v>
       </c>
@@ -3560,7 +3560,7 @@
         <f t="shared" si="2"/>
         <v>42765</v>
       </c>
-      <c r="B27" s="99"/>
+      <c r="B27" s="105"/>
       <c r="C27" s="36" t="s">
         <v>44</v>
       </c>
@@ -3580,7 +3580,7 @@
         <f>A27+7</f>
         <v>42772</v>
       </c>
-      <c r="B28" s="100"/>
+      <c r="B28" s="106"/>
       <c r="C28" s="38" t="s">
         <v>47</v>
       </c>
@@ -3600,7 +3600,7 @@
         <f>A28+7</f>
         <v>42779</v>
       </c>
-      <c r="B29" s="101"/>
+      <c r="B29" s="107"/>
       <c r="C29" s="29" t="s">
         <v>47</v>
       </c>
@@ -3630,14 +3630,14 @@
       <c r="A33" s="46">
         <v>42800</v>
       </c>
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="104"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="110"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="41">
@@ -3703,7 +3703,7 @@
         <v>42828</v>
       </c>
       <c r="B37" s="23"/>
-      <c r="C37" s="105"/>
+      <c r="C37" s="100"/>
       <c r="D37" s="15" t="s">
         <v>55</v>
       </c>
@@ -3771,14 +3771,14 @@
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
-      <c r="B45" s="106" t="s">
+      <c r="B45" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="107"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="108"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="113"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
@@ -3827,26 +3827,26 @@
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
-      <c r="B51" s="109"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="111"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B42:G44"/>
+    <mergeCell ref="B45:G51"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B42:G44"/>
-    <mergeCell ref="B45:G51"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Progression/Progression_Informatique_2017_2018.xlsx
+++ b/Progression/Progression_Informatique_2017_2018.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
   <si>
     <t>Semaine</t>
   </si>
@@ -781,16 +781,25 @@
 Vendredi SZ G2</t>
   </si>
   <si>
-    <t>TD SZ G1</t>
-  </si>
-  <si>
-    <t>TD XP G2</t>
-  </si>
-  <si>
-    <t>TD XP G1</t>
-  </si>
-  <si>
-    <t>TD SZ G2</t>
+    <t>Modélisation CCP 2016
+Informatique CCP 2015 ?</t>
+  </si>
+  <si>
+    <t>TD XP - CCP 2016 - La mission Cassini-Huygens
+TD SZ - Centrale Supelec 2016 - Prévention des collisions aériennes.
+(ou l'inverse)</t>
+  </si>
+  <si>
+    <t>Mines Ponts 2016/2015
+2016 : Modélisation de la propagation d'une épidémie.</t>
+  </si>
+  <si>
+    <t>TD SZ/XP -  Centrale Supelec 2017 Mars Exploration Rovers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mines Ponts 2017
+Etude du trafic routier
+</t>
   </si>
 </sst>
 </file>
@@ -1707,24 +1716,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1743,6 +1734,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1759,6 +1753,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2105,8 +2114,8 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2773,7 +2782,9 @@
       <c r="E31" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="13"/>
+      <c r="F31" s="13" t="s">
+        <v>89</v>
+      </c>
       <c r="G31" s="13"/>
       <c r="H31" s="77" t="s">
         <v>72</v>
@@ -2802,12 +2813,12 @@
       <c r="E32" s="62"/>
       <c r="F32" s="36"/>
       <c r="G32" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="60"/>
     </row>
-    <row r="33" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>22</v>
       </c>
@@ -2855,7 +2866,9 @@
       <c r="E34" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="36"/>
+      <c r="F34" s="36" t="s">
+        <v>87</v>
+      </c>
       <c r="G34" s="15"/>
       <c r="H34" s="73"/>
       <c r="I34" s="60"/>
@@ -2880,10 +2893,10 @@
         <v>26/03/2018 au 01/04/2018</v>
       </c>
       <c r="E35" s="62"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="15" t="s">
-        <v>87</v>
-      </c>
+      <c r="F35" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="15"/>
       <c r="H35" s="21"/>
       <c r="I35" s="60"/>
       <c r="K35" s="4">
@@ -2908,9 +2921,7 @@
       </c>
       <c r="E36" s="63"/>
       <c r="F36" s="29"/>
-      <c r="G36" s="18" t="s">
-        <v>88</v>
-      </c>
+      <c r="G36" s="18"/>
       <c r="H36" s="75"/>
       <c r="I36" s="61"/>
     </row>
@@ -3221,7 +3232,7 @@
       <c r="A4" s="41">
         <v>42618</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="113" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="15"/>
@@ -3235,7 +3246,7 @@
         <f>A4+7</f>
         <v>42625</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="15" t="s">
         <v>17</v>
       </c>
@@ -3249,7 +3260,7 @@
         <f t="shared" ref="A6:A10" si="0">A5+7</f>
         <v>42632</v>
       </c>
-      <c r="B6" s="101"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
@@ -3263,7 +3274,7 @@
         <f t="shared" si="0"/>
         <v>42639</v>
       </c>
-      <c r="B7" s="101"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
@@ -3337,15 +3348,15 @@
       <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="116"/>
     </row>
     <row r="12" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
@@ -3402,7 +3413,7 @@
         <f t="shared" si="1"/>
         <v>42695</v>
       </c>
-      <c r="B16" s="100"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="48" t="s">
         <v>32</v>
       </c>
@@ -3486,7 +3497,7 @@
       <c r="A23" s="46">
         <v>42737</v>
       </c>
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="112" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="30" t="s">
@@ -3522,7 +3533,7 @@
         <f t="shared" ref="A25:A27" si="2">A24+7</f>
         <v>42751</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="36" t="s">
         <v>42</v>
       </c>
@@ -3560,7 +3571,7 @@
         <f t="shared" si="2"/>
         <v>42765</v>
       </c>
-      <c r="B27" s="105"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="36" t="s">
         <v>44</v>
       </c>
@@ -3580,7 +3591,7 @@
         <f>A27+7</f>
         <v>42772</v>
       </c>
-      <c r="B28" s="106"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="38" t="s">
         <v>47</v>
       </c>
@@ -3600,7 +3611,7 @@
         <f>A28+7</f>
         <v>42779</v>
       </c>
-      <c r="B29" s="107"/>
+      <c r="B29" s="101"/>
       <c r="C29" s="29" t="s">
         <v>47</v>
       </c>
@@ -3630,14 +3641,14 @@
       <c r="A33" s="46">
         <v>42800</v>
       </c>
-      <c r="B33" s="108" t="s">
+      <c r="B33" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="110"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="104"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="41">
@@ -3703,7 +3714,7 @@
         <v>42828</v>
       </c>
       <c r="B37" s="23"/>
-      <c r="C37" s="100"/>
+      <c r="C37" s="105"/>
       <c r="D37" s="15" t="s">
         <v>55</v>
       </c>
@@ -3771,14 +3782,14 @@
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
-      <c r="B45" s="111" t="s">
+      <c r="B45" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="113"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="108"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
@@ -3827,26 +3838,26 @@
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="116"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B42:G44"/>
-    <mergeCell ref="B45:G51"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B42:G44"/>
+    <mergeCell ref="B45:G51"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Progression/Progression_Informatique_2017_2018.xlsx
+++ b/Progression/Progression_Informatique_2017_2018.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -1716,6 +1716,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1734,9 +1752,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1753,21 +1768,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2114,8 +2114,8 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3232,7 +3232,7 @@
       <c r="A4" s="41">
         <v>42618</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="15"/>
@@ -3246,7 +3246,7 @@
         <f>A4+7</f>
         <v>42625</v>
       </c>
-      <c r="B5" s="113"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="15" t="s">
         <v>17</v>
       </c>
@@ -3260,7 +3260,7 @@
         <f t="shared" ref="A6:A10" si="0">A5+7</f>
         <v>42632</v>
       </c>
-      <c r="B6" s="113"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
@@ -3274,7 +3274,7 @@
         <f t="shared" si="0"/>
         <v>42639</v>
       </c>
-      <c r="B7" s="113"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
@@ -3348,15 +3348,15 @@
       <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="116"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
     </row>
     <row r="12" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
@@ -3413,7 +3413,7 @@
         <f t="shared" si="1"/>
         <v>42695</v>
       </c>
-      <c r="B16" s="105"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="48" t="s">
         <v>32</v>
       </c>
@@ -3497,7 +3497,7 @@
       <c r="A23" s="46">
         <v>42737</v>
       </c>
-      <c r="B23" s="112" t="s">
+      <c r="B23" s="99" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="30" t="s">
@@ -3533,7 +3533,7 @@
         <f t="shared" ref="A25:A27" si="2">A24+7</f>
         <v>42751</v>
       </c>
-      <c r="B25" s="105"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="36" t="s">
         <v>42</v>
       </c>
@@ -3571,7 +3571,7 @@
         <f t="shared" si="2"/>
         <v>42765</v>
       </c>
-      <c r="B27" s="99"/>
+      <c r="B27" s="105"/>
       <c r="C27" s="36" t="s">
         <v>44</v>
       </c>
@@ -3591,7 +3591,7 @@
         <f>A27+7</f>
         <v>42772</v>
       </c>
-      <c r="B28" s="100"/>
+      <c r="B28" s="106"/>
       <c r="C28" s="38" t="s">
         <v>47</v>
       </c>
@@ -3611,7 +3611,7 @@
         <f>A28+7</f>
         <v>42779</v>
       </c>
-      <c r="B29" s="101"/>
+      <c r="B29" s="107"/>
       <c r="C29" s="29" t="s">
         <v>47</v>
       </c>
@@ -3641,14 +3641,14 @@
       <c r="A33" s="46">
         <v>42800</v>
       </c>
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="104"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="110"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="41">
@@ -3714,7 +3714,7 @@
         <v>42828</v>
       </c>
       <c r="B37" s="23"/>
-      <c r="C37" s="105"/>
+      <c r="C37" s="100"/>
       <c r="D37" s="15" t="s">
         <v>55</v>
       </c>
@@ -3782,14 +3782,14 @@
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
-      <c r="B45" s="106" t="s">
+      <c r="B45" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="107"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="108"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="113"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
@@ -3838,26 +3838,26 @@
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
-      <c r="B51" s="109"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="111"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B42:G44"/>
+    <mergeCell ref="B45:G51"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B42:G44"/>
-    <mergeCell ref="B45:G51"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Progression/Progression_Informatique_2017_2018.xlsx
+++ b/Progression/Progression_Informatique_2017_2018.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,12 +12,12 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId3"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>Semaine</t>
   </si>
@@ -801,11 +801,17 @@
 Etude du trafic routier
 </t>
   </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>xp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
@@ -1716,24 +1722,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1752,6 +1740,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1768,6 +1759,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1830,7 +1836,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1863,26 +1869,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1915,23 +1904,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2111,11 +2083,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2126,12 +2098,14 @@
     <col min="4" max="4" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.5703125" style="3" customWidth="1"/>
     <col min="6" max="7" width="35.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="35.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="35.5703125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="8" width="11.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="4" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="4"/>
+    <col min="12" max="13" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2151,7 +2125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="40" t="s">
@@ -2167,8 +2141,14 @@
       <c r="K2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2195,8 +2175,11 @@
       <c r="J3" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2222,8 +2205,11 @@
       <c r="K4" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="M4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2246,8 +2232,11 @@
       </c>
       <c r="H5" s="76"/>
       <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="L5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2277,8 +2266,11 @@
       <c r="J6" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="M6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2306,8 +2298,11 @@
       <c r="K7" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="L7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2330,8 +2325,11 @@
       </c>
       <c r="H8" s="78"/>
       <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2359,9 +2357,12 @@
       <c r="J9" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="39">
         <f>B9+7</f>
         <v>43031</v>
@@ -2382,8 +2383,8 @@
       <c r="H11" s="26"/>
       <c r="I11" s="28"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -2411,8 +2412,11 @@
       <c r="K13" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="M13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -2437,8 +2441,11 @@
         <v>72</v>
       </c>
       <c r="I14" s="60"/>
-    </row>
-    <row r="15" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="L14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -2466,8 +2473,11 @@
       <c r="J15" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -2493,8 +2503,14 @@
       <c r="K16" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="L16" s="4">
+        <v>2</v>
+      </c>
+      <c r="M16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -2525,7 +2541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -2550,8 +2566,11 @@
       <c r="K18" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -2574,9 +2593,15 @@
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="19"/>
-    </row>
-    <row r="20" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="4">
+        <v>2</v>
+      </c>
+      <c r="M19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="39">
         <f>B19+7</f>
         <v>43094</v>
@@ -2597,8 +2622,8 @@
       <c r="H21" s="26"/>
       <c r="I21" s="28"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>15</v>
       </c>
@@ -2628,8 +2653,11 @@
       <c r="J23" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="M23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>16</v>
       </c>
@@ -2655,8 +2683,11 @@
       <c r="K24" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="L24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>17</v>
       </c>
@@ -2679,8 +2710,11 @@
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="60"/>
-    </row>
-    <row r="26" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="M25" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>18</v>
       </c>
@@ -2710,8 +2744,11 @@
       <c r="J26" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>19</v>
       </c>
@@ -2737,12 +2774,18 @@
       <c r="K27" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="4">
+        <v>2</v>
+      </c>
+      <c r="M27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
     </row>
-    <row r="29" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="39">
         <v>43143</v>
       </c>
@@ -2762,8 +2805,8 @@
       <c r="H29" s="26"/>
       <c r="I29" s="28"/>
     </row>
-    <row r="30" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>20</v>
       </c>
@@ -2793,8 +2836,11 @@
       <c r="J31" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="M31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>21</v>
       </c>
@@ -2817,8 +2863,14 @@
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="60"/>
-    </row>
-    <row r="33" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="L32" s="4">
+        <v>2</v>
+      </c>
+      <c r="M32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>22</v>
       </c>
@@ -2846,8 +2898,14 @@
       <c r="K33" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="L33" s="4">
+        <v>2</v>
+      </c>
+      <c r="M33" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>23</v>
       </c>
@@ -2875,8 +2933,11 @@
       <c r="J34" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="M34" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>24</v>
       </c>
@@ -2902,8 +2963,11 @@
       <c r="K35" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>25</v>
       </c>
@@ -2925,8 +2989,8 @@
       <c r="H36" s="75"/>
       <c r="I36" s="61"/>
     </row>
-    <row r="37" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="39">
         <f>B36+7</f>
         <v>43199</v>
@@ -2954,9 +3018,17 @@
         <f>SUM(K3:K36)</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L38" s="4">
+        <f>SUM(L3:L37)</f>
+        <v>18</v>
+      </c>
+      <c r="M38" s="4">
+        <f>SUM(M3:M37)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="39">
         <f>B38+7+7</f>
         <v>43213</v>
@@ -2975,7 +3047,7 @@
       <c r="H40" s="80"/>
       <c r="I40" s="81"/>
     </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="39">
         <f t="shared" ref="B41:B49" si="12">B40+7</f>
         <v>43220</v>
@@ -2994,7 +3066,7 @@
       <c r="H41" s="83"/>
       <c r="I41" s="84"/>
     </row>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="39">
         <f t="shared" si="12"/>
         <v>43227</v>
@@ -3013,7 +3085,7 @@
       <c r="H42" s="86"/>
       <c r="I42" s="87"/>
     </row>
-    <row r="43" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="39">
         <f t="shared" si="12"/>
         <v>43234</v>
@@ -3031,8 +3103,14 @@
       <c r="G43" s="9"/>
       <c r="H43" s="21"/>
       <c r="I43" s="17"/>
-    </row>
-    <row r="44" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L43" s="4">
+        <v>2</v>
+      </c>
+      <c r="M43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="39">
         <f t="shared" si="12"/>
         <v>43241</v>
@@ -3050,8 +3128,14 @@
       <c r="G44" s="37"/>
       <c r="H44" s="21"/>
       <c r="I44" s="17"/>
-    </row>
-    <row r="45" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L44" s="4">
+        <v>2</v>
+      </c>
+      <c r="M44" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="39">
         <f t="shared" si="12"/>
         <v>43248</v>
@@ -3069,8 +3153,11 @@
       <c r="G45" s="9"/>
       <c r="H45" s="21"/>
       <c r="I45" s="17"/>
-    </row>
-    <row r="46" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M45" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="39">
         <f t="shared" si="12"/>
         <v>43255</v>
@@ -3088,8 +3175,11 @@
       <c r="G46" s="9"/>
       <c r="H46" s="21"/>
       <c r="I46" s="17"/>
-    </row>
-    <row r="47" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M46" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="39">
         <f t="shared" si="12"/>
         <v>43262</v>
@@ -3108,7 +3198,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="39">
         <f t="shared" si="12"/>
         <v>43269</v>
@@ -3126,8 +3216,20 @@
       <c r="G48" s="9"/>
       <c r="H48" s="21"/>
       <c r="I48" s="17"/>
-    </row>
-    <row r="49" spans="2:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K48" s="4">
+        <f>L48+M48</f>
+        <v>72</v>
+      </c>
+      <c r="L48" s="4">
+        <f>18+8</f>
+        <v>26</v>
+      </c>
+      <c r="M48" s="4">
+        <f>38+8</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="39">
         <f t="shared" si="12"/>
         <v>43276</v>
@@ -3145,6 +3247,14 @@
       <c r="G49" s="11"/>
       <c r="H49" s="75"/>
       <c r="I49" s="19"/>
+      <c r="L49" s="4">
+        <f>L48/K48</f>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="M49" s="4">
+        <f>M48/K48</f>
+        <v>0.63888888888888884</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3160,7 +3270,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3232,7 +3342,7 @@
       <c r="A4" s="41">
         <v>42618</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="113" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="15"/>
@@ -3246,7 +3356,7 @@
         <f>A4+7</f>
         <v>42625</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="15" t="s">
         <v>17</v>
       </c>
@@ -3260,7 +3370,7 @@
         <f t="shared" ref="A6:A10" si="0">A5+7</f>
         <v>42632</v>
       </c>
-      <c r="B6" s="101"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
@@ -3274,7 +3384,7 @@
         <f t="shared" si="0"/>
         <v>42639</v>
       </c>
-      <c r="B7" s="101"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
@@ -3348,15 +3458,15 @@
       <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="116"/>
     </row>
     <row r="12" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
@@ -3413,7 +3523,7 @@
         <f t="shared" si="1"/>
         <v>42695</v>
       </c>
-      <c r="B16" s="100"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="48" t="s">
         <v>32</v>
       </c>
@@ -3497,7 +3607,7 @@
       <c r="A23" s="46">
         <v>42737</v>
       </c>
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="112" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="30" t="s">
@@ -3533,7 +3643,7 @@
         <f t="shared" ref="A25:A27" si="2">A24+7</f>
         <v>42751</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="36" t="s">
         <v>42</v>
       </c>
@@ -3571,7 +3681,7 @@
         <f t="shared" si="2"/>
         <v>42765</v>
       </c>
-      <c r="B27" s="105"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="36" t="s">
         <v>44</v>
       </c>
@@ -3591,7 +3701,7 @@
         <f>A27+7</f>
         <v>42772</v>
       </c>
-      <c r="B28" s="106"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="38" t="s">
         <v>47</v>
       </c>
@@ -3611,7 +3721,7 @@
         <f>A28+7</f>
         <v>42779</v>
       </c>
-      <c r="B29" s="107"/>
+      <c r="B29" s="101"/>
       <c r="C29" s="29" t="s">
         <v>47</v>
       </c>
@@ -3641,14 +3751,14 @@
       <c r="A33" s="46">
         <v>42800</v>
       </c>
-      <c r="B33" s="108" t="s">
+      <c r="B33" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="110"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="104"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="41">
@@ -3714,7 +3824,7 @@
         <v>42828</v>
       </c>
       <c r="B37" s="23"/>
-      <c r="C37" s="100"/>
+      <c r="C37" s="105"/>
       <c r="D37" s="15" t="s">
         <v>55</v>
       </c>
@@ -3782,14 +3892,14 @@
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
-      <c r="B45" s="111" t="s">
+      <c r="B45" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="113"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="108"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
@@ -3838,30 +3948,30 @@
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="116"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B42:G44"/>
-    <mergeCell ref="B45:G51"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B42:G44"/>
+    <mergeCell ref="B45:G51"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
